--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +537,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.361892769923</v>
+        <v>40.32940166666666</v>
       </c>
       <c r="H2">
-        <v>32.361892769923</v>
+        <v>120.988205</v>
       </c>
       <c r="I2">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="J2">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0818483001015924</v>
+        <v>0.1152486666666667</v>
       </c>
       <c r="N2">
-        <v>0.0818483001015924</v>
+        <v>0.345746</v>
       </c>
       <c r="O2">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270826</v>
       </c>
       <c r="P2">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270825</v>
       </c>
       <c r="Q2">
-        <v>2.648765911288211</v>
+        <v>4.647909769547777</v>
       </c>
       <c r="R2">
-        <v>2.648765911288211</v>
+        <v>41.83118792593</v>
       </c>
       <c r="S2">
-        <v>0.0001207704970186364</v>
+        <v>0.0001339654253284392</v>
       </c>
       <c r="T2">
-        <v>0.0001207704970186364</v>
+        <v>0.0001339654253284392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +596,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.361892769923</v>
+        <v>40.32940166666666</v>
       </c>
       <c r="H3">
-        <v>32.361892769923</v>
+        <v>120.988205</v>
       </c>
       <c r="I3">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="J3">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>94.2624317428959</v>
+        <v>0.006638666666666667</v>
       </c>
       <c r="N3">
-        <v>94.2624317428959</v>
+        <v>0.019916</v>
       </c>
       <c r="O3">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="P3">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="Q3">
-        <v>3050.510708295783</v>
+        <v>0.2677334545311111</v>
       </c>
       <c r="R3">
-        <v>3050.510708295783</v>
+        <v>2.40960109078</v>
       </c>
       <c r="S3">
-        <v>0.1390880533577916</v>
+        <v>7.716807745689598E-06</v>
       </c>
       <c r="T3">
-        <v>0.1390880533577916</v>
+        <v>7.716807745689597E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +658,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.361892769923</v>
+        <v>40.32940166666666</v>
       </c>
       <c r="H4">
-        <v>32.361892769923</v>
+        <v>120.988205</v>
       </c>
       <c r="I4">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="J4">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>173.000693656401</v>
+        <v>153.646004</v>
       </c>
       <c r="N4">
-        <v>173.000693656401</v>
+        <v>460.938012</v>
       </c>
       <c r="O4">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="P4">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="Q4">
-        <v>5598.629897230749</v>
+        <v>6196.451409794273</v>
       </c>
       <c r="R4">
-        <v>5598.629897230749</v>
+        <v>55768.06268814846</v>
       </c>
       <c r="S4">
-        <v>0.2552695624896174</v>
+        <v>0.1785986152482609</v>
       </c>
       <c r="T4">
-        <v>0.2552695624896174</v>
+        <v>0.1785986152482609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +720,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.361892769923</v>
+        <v>40.32940166666666</v>
       </c>
       <c r="H5">
-        <v>32.361892769923</v>
+        <v>120.988205</v>
       </c>
       <c r="I5">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="J5">
-        <v>0.4308148860356953</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.6258879841602</v>
+        <v>224.6466153333333</v>
       </c>
       <c r="N5">
-        <v>24.6258879841602</v>
+        <v>673.939846</v>
       </c>
       <c r="O5">
-        <v>0.08434364937022384</v>
+        <v>0.5549143553507024</v>
       </c>
       <c r="P5">
-        <v>0.08434364937022384</v>
+        <v>0.5549143553507023</v>
       </c>
       <c r="Q5">
-        <v>796.9403463075278</v>
+        <v>9059.863582835158</v>
       </c>
       <c r="R5">
-        <v>796.9403463075278</v>
+        <v>81538.77224551642</v>
       </c>
       <c r="S5">
-        <v>0.03633649969126763</v>
+        <v>0.26112995700651</v>
       </c>
       <c r="T5">
-        <v>0.03633649969126763</v>
+        <v>0.26112995700651</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,60 +782,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.6367828298141</v>
+        <v>40.32940166666666</v>
       </c>
       <c r="H6">
-        <v>34.6367828298141</v>
+        <v>120.988205</v>
       </c>
       <c r="I6">
-        <v>0.4610991623252014</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="J6">
-        <v>0.4610991623252014</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0818483001015924</v>
+        <v>26.38673933333333</v>
       </c>
       <c r="N6">
-        <v>0.0818483001015924</v>
+        <v>79.160218</v>
       </c>
       <c r="O6">
-        <v>0.0002803303714269286</v>
+        <v>0.06517961744154104</v>
       </c>
       <c r="P6">
-        <v>0.0002803303714269286</v>
+        <v>0.06517961744154101</v>
       </c>
       <c r="Q6">
-        <v>2.834961795608308</v>
+        <v>1064.161409247632</v>
       </c>
       <c r="R6">
-        <v>2.834961795608308</v>
+        <v>9577.45268322869</v>
       </c>
       <c r="S6">
-        <v>0.0001292600994392693</v>
+        <v>0.03067203170379982</v>
       </c>
       <c r="T6">
-        <v>0.0001292600994392693</v>
+        <v>0.03067203170379981</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,55 +844,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.6367828298141</v>
+        <v>40.32940166666666</v>
       </c>
       <c r="H7">
-        <v>34.6367828298141</v>
+        <v>120.988205</v>
       </c>
       <c r="I7">
-        <v>0.4610991623252014</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="J7">
-        <v>0.4610991623252014</v>
+        <v>0.4705770439863239</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>94.2624317428959</v>
+        <v>0.02990166666666667</v>
       </c>
       <c r="N7">
-        <v>94.2624317428959</v>
+        <v>0.08970500000000001</v>
       </c>
       <c r="O7">
-        <v>0.3228487637408783</v>
+        <v>7.386207024585807E-05</v>
       </c>
       <c r="P7">
-        <v>0.3228487637408783</v>
+        <v>7.386207024585805E-05</v>
       </c>
       <c r="Q7">
-        <v>3264.94737728886</v>
+        <v>1.205916325502778</v>
       </c>
       <c r="R7">
-        <v>3264.94737728886</v>
+        <v>10.853246929525</v>
       </c>
       <c r="S7">
-        <v>0.1488652945186458</v>
+        <v>3.47577946790061E-05</v>
       </c>
       <c r="T7">
-        <v>0.1488652945186458</v>
+        <v>3.475779467900609E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +906,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.6367828298141</v>
+        <v>35.65443533333333</v>
       </c>
       <c r="H8">
-        <v>34.6367828298141</v>
+        <v>106.963306</v>
       </c>
       <c r="I8">
-        <v>0.4610991623252014</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="J8">
-        <v>0.4610991623252014</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>173.000693656401</v>
+        <v>0.1152486666666667</v>
       </c>
       <c r="N8">
-        <v>173.000693656401</v>
+        <v>0.345746</v>
       </c>
       <c r="O8">
-        <v>0.5925272565174708</v>
+        <v>0.0002846832990270826</v>
       </c>
       <c r="P8">
-        <v>0.5925272565174708</v>
+        <v>0.0002846832990270825</v>
       </c>
       <c r="Q8">
-        <v>5992.18745558396</v>
+        <v>4.109126132919555</v>
       </c>
       <c r="R8">
-        <v>5992.18745558396</v>
+        <v>36.982135196276</v>
       </c>
       <c r="S8">
-        <v>0.2732138216350555</v>
+        <v>0.0001184362127103712</v>
       </c>
       <c r="T8">
-        <v>0.2732138216350555</v>
+        <v>0.0001184362127103712</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,60 +968,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.6367828298141</v>
+        <v>35.65443533333333</v>
       </c>
       <c r="H9">
-        <v>34.6367828298141</v>
+        <v>106.963306</v>
       </c>
       <c r="I9">
-        <v>0.4610991623252014</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="J9">
-        <v>0.4610991623252014</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>24.6258879841602</v>
+        <v>0.006638666666666667</v>
       </c>
       <c r="N9">
-        <v>24.6258879841602</v>
+        <v>0.019916</v>
       </c>
       <c r="O9">
-        <v>0.08434364937022384</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="P9">
-        <v>0.08434364937022384</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="Q9">
-        <v>852.9615340986854</v>
+        <v>0.2366979113662222</v>
       </c>
       <c r="R9">
-        <v>852.9615340986854</v>
+        <v>2.130281202296</v>
       </c>
       <c r="S9">
-        <v>0.03889078607206072</v>
+        <v>6.822278818380409E-06</v>
       </c>
       <c r="T9">
-        <v>0.03889078607206072</v>
+        <v>6.822278818380407E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1030,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.11918550230858</v>
+        <v>35.65443533333333</v>
       </c>
       <c r="H10">
-        <v>8.11918550230858</v>
+        <v>106.963306</v>
       </c>
       <c r="I10">
-        <v>0.1080859516391032</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="J10">
-        <v>0.1080859516391032</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0818483001015924</v>
+        <v>153.646004</v>
       </c>
       <c r="N10">
-        <v>0.0818483001015924</v>
+        <v>460.938012</v>
       </c>
       <c r="O10">
-        <v>0.0002803303714269286</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="P10">
-        <v>0.0002803303714269286</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="Q10">
-        <v>0.664541531573451</v>
+        <v>5478.161513843074</v>
       </c>
       <c r="R10">
-        <v>0.664541531573451</v>
+        <v>49303.45362458767</v>
       </c>
       <c r="S10">
-        <v>3.029977496902283E-05</v>
+        <v>0.1578955430736079</v>
       </c>
       <c r="T10">
-        <v>3.029977496902283E-05</v>
+        <v>0.1578955430736079</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,179 +1092,551 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.11918550230858</v>
+        <v>35.65443533333333</v>
       </c>
       <c r="H11">
-        <v>8.11918550230858</v>
+        <v>106.963306</v>
       </c>
       <c r="I11">
-        <v>0.1080859516391032</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="J11">
-        <v>0.1080859516391032</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>94.2624317428959</v>
+        <v>224.6466153333333</v>
       </c>
       <c r="N11">
-        <v>94.2624317428959</v>
+        <v>673.939846</v>
       </c>
       <c r="O11">
-        <v>0.3228487637408783</v>
+        <v>0.5549143553507024</v>
       </c>
       <c r="P11">
-        <v>0.3228487637408783</v>
+        <v>0.5549143553507023</v>
       </c>
       <c r="Q11">
-        <v>765.3341692192726</v>
+        <v>8009.648219254541</v>
       </c>
       <c r="R11">
-        <v>765.3341692192726</v>
+        <v>72086.83397329086</v>
       </c>
       <c r="S11">
-        <v>0.03489541586444082</v>
+        <v>0.230859888342456</v>
       </c>
       <c r="T11">
-        <v>0.03489541586444082</v>
+        <v>0.230859888342456</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.11918550230858</v>
+        <v>35.65443533333333</v>
       </c>
       <c r="H12">
-        <v>8.11918550230858</v>
+        <v>106.963306</v>
       </c>
       <c r="I12">
-        <v>0.1080859516391032</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="J12">
-        <v>0.1080859516391032</v>
+        <v>0.41602796200245</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>173.000693656401</v>
+        <v>26.38673933333333</v>
       </c>
       <c r="N12">
-        <v>173.000693656401</v>
+        <v>79.160218</v>
       </c>
       <c r="O12">
-        <v>0.5925272565174708</v>
+        <v>0.06517961744154104</v>
       </c>
       <c r="P12">
-        <v>0.5925272565174708</v>
+        <v>0.06517961744154101</v>
       </c>
       <c r="Q12">
-        <v>1404.624723824379</v>
+        <v>940.8042912178564</v>
       </c>
       <c r="R12">
-        <v>1404.624723824379</v>
+        <v>8467.238620960707</v>
       </c>
       <c r="S12">
-        <v>0.06404387239279784</v>
+        <v>0.02711654340830366</v>
       </c>
       <c r="T12">
-        <v>0.06404387239279784</v>
+        <v>0.02711654340830365</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>35.65443533333333</v>
+      </c>
+      <c r="H13">
+        <v>106.963306</v>
+      </c>
+      <c r="I13">
+        <v>0.41602796200245</v>
+      </c>
+      <c r="J13">
+        <v>0.41602796200245</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.02990166666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.08970500000000001</v>
+      </c>
+      <c r="O13">
+        <v>7.386207024585807E-05</v>
+      </c>
+      <c r="P13">
+        <v>7.386207024585805E-05</v>
+      </c>
+      <c r="Q13">
+        <v>1.066127040525556</v>
+      </c>
+      <c r="R13">
+        <v>9.595143364729999</v>
+      </c>
+      <c r="S13">
+        <v>3.072868655366613E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.072868655366612E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>9.718179666666666</v>
+      </c>
+      <c r="H14">
+        <v>29.154539</v>
+      </c>
+      <c r="I14">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="J14">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1152486666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.345746</v>
+      </c>
+      <c r="O14">
+        <v>0.0002846832990270826</v>
+      </c>
+      <c r="P14">
+        <v>0.0002846832990270825</v>
+      </c>
+      <c r="Q14">
+        <v>1.120007249010444</v>
+      </c>
+      <c r="R14">
+        <v>10.080065241094</v>
+      </c>
+      <c r="S14">
+        <v>3.228166098827212E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.228166098827211E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>8.11918550230858</v>
-      </c>
-      <c r="H13">
-        <v>8.11918550230858</v>
-      </c>
-      <c r="I13">
-        <v>0.1080859516391032</v>
-      </c>
-      <c r="J13">
-        <v>0.1080859516391032</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>24.6258879841602</v>
-      </c>
-      <c r="N13">
-        <v>24.6258879841602</v>
-      </c>
-      <c r="O13">
-        <v>0.08434364937022384</v>
-      </c>
-      <c r="P13">
-        <v>0.08434364937022384</v>
-      </c>
-      <c r="Q13">
-        <v>199.9421527024686</v>
-      </c>
-      <c r="R13">
-        <v>199.9421527024686</v>
-      </c>
-      <c r="S13">
-        <v>0.009116363606895489</v>
-      </c>
-      <c r="T13">
-        <v>0.009116363606895489</v>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>9.718179666666666</v>
+      </c>
+      <c r="H15">
+        <v>29.154539</v>
+      </c>
+      <c r="I15">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="J15">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.006638666666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.019916</v>
+      </c>
+      <c r="O15">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="P15">
+        <v>1.63986064435261E-05</v>
+      </c>
+      <c r="Q15">
+        <v>0.06451575541377777</v>
+      </c>
+      <c r="R15">
+        <v>0.580641798724</v>
+      </c>
+      <c r="S15">
+        <v>1.859519879456096E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.859519879456096E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9.718179666666666</v>
+      </c>
+      <c r="H16">
+        <v>29.154539</v>
+      </c>
+      <c r="I16">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="J16">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>153.646004</v>
+      </c>
+      <c r="N16">
+        <v>460.938012</v>
+      </c>
+      <c r="O16">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="P16">
+        <v>0.3795310832320402</v>
+      </c>
+      <c r="Q16">
+        <v>1493.159471937385</v>
+      </c>
+      <c r="R16">
+        <v>13438.43524743647</v>
+      </c>
+      <c r="S16">
+        <v>0.04303692491017135</v>
+      </c>
+      <c r="T16">
+        <v>0.04303692491017135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>9.718179666666666</v>
+      </c>
+      <c r="H17">
+        <v>29.154539</v>
+      </c>
+      <c r="I17">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="J17">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>224.6466153333333</v>
+      </c>
+      <c r="N17">
+        <v>673.939846</v>
+      </c>
+      <c r="O17">
+        <v>0.5549143553507024</v>
+      </c>
+      <c r="P17">
+        <v>0.5549143553507023</v>
+      </c>
+      <c r="Q17">
+        <v>2183.156169317888</v>
+      </c>
+      <c r="R17">
+        <v>19648.40552386099</v>
+      </c>
+      <c r="S17">
+        <v>0.06292451000173629</v>
+      </c>
+      <c r="T17">
+        <v>0.06292451000173629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>9.718179666666666</v>
+      </c>
+      <c r="H18">
+        <v>29.154539</v>
+      </c>
+      <c r="I18">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="J18">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>26.38673933333333</v>
+      </c>
+      <c r="N18">
+        <v>79.160218</v>
+      </c>
+      <c r="O18">
+        <v>0.06517961744154104</v>
+      </c>
+      <c r="P18">
+        <v>0.06517961744154101</v>
+      </c>
+      <c r="Q18">
+        <v>256.4310736588336</v>
+      </c>
+      <c r="R18">
+        <v>2307.879662929502</v>
+      </c>
+      <c r="S18">
+        <v>0.007391042329437554</v>
+      </c>
+      <c r="T18">
+        <v>0.007391042329437551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>9.718179666666666</v>
+      </c>
+      <c r="H19">
+        <v>29.154539</v>
+      </c>
+      <c r="I19">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="J19">
+        <v>0.1133949940112261</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.02990166666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.08970500000000001</v>
+      </c>
+      <c r="O19">
+        <v>7.386207024585807E-05</v>
+      </c>
+      <c r="P19">
+        <v>7.386207024585805E-05</v>
+      </c>
+      <c r="Q19">
+        <v>0.2905897689994444</v>
+      </c>
+      <c r="R19">
+        <v>2.615307920995</v>
+      </c>
+      <c r="S19">
+        <v>8.375589013185838E-06</v>
+      </c>
+      <c r="T19">
+        <v>8.375589013185836E-06</v>
       </c>
     </row>
   </sheetData>
